--- a/variables_profile4.xlsx
+++ b/variables_profile4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\WORK\aspect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\WORK\researchPlatform_Test\researchPlatform_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E269A3B-6AA0-48AB-B763-572F065D516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A8AA6B-FEA5-4940-94B0-E01EB236E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3795" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,23 @@
     <sheet name="orb" sheetId="5" r:id="rId5"/>
     <sheet name="signs" sheetId="6" r:id="rId6"/>
     <sheet name="sign_order" sheetId="7" r:id="rId7"/>
-    <sheet name="planet" sheetId="8" r:id="rId8"/>
-    <sheet name="moon_phase" sheetId="9" r:id="rId9"/>
-    <sheet name="house" sheetId="10" r:id="rId10"/>
-    <sheet name="dignity" sheetId="11" r:id="rId11"/>
-    <sheet name="dignity2" sheetId="13" r:id="rId12"/>
-    <sheet name="bound" sheetId="12" r:id="rId13"/>
+    <sheet name="planet_aspect_keep" sheetId="14" r:id="rId8"/>
+    <sheet name="planet" sheetId="8" r:id="rId9"/>
+    <sheet name="moon_phase" sheetId="9" r:id="rId10"/>
+    <sheet name="house" sheetId="10" r:id="rId11"/>
+    <sheet name="dignity" sheetId="11" r:id="rId12"/>
+    <sheet name="dignity2" sheetId="13" r:id="rId13"/>
+    <sheet name="bound" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">aspect!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="227">
   <si>
     <t>var_id</t>
   </si>
@@ -714,6 +705,18 @@
   </si>
   <si>
     <t>Exaltation,Domicile</t>
+  </si>
+  <si>
+    <t>fastestPlanet</t>
+  </si>
+  <si>
+    <t>slowestPlanet</t>
+  </si>
+  <si>
+    <t>South_Node</t>
+  </si>
+  <si>
+    <t>True_Node(North_Node)</t>
   </si>
 </sst>
 </file>
@@ -845,7 +848,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,13 +1073,13 @@
       <selection activeCell="F1" sqref="F1:Y1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1210,7 +1213,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1225,7 +1228,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1372,22 +1375,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -1398,6 +1401,126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="18">
+        <v>45</v>
+      </c>
+      <c r="C3" s="18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="18">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="18">
+        <v>135</v>
+      </c>
+      <c r="C5" s="18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18">
+        <v>180</v>
+      </c>
+      <c r="C6" s="18">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="18">
+        <v>215</v>
+      </c>
+      <c r="C7" s="18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="18">
+        <v>270</v>
+      </c>
+      <c r="C8" s="18">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="18">
+        <v>315</v>
+      </c>
+      <c r="C9" s="18">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1406,9 +1529,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>188</v>
       </c>
@@ -1419,7 +1542,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>191</v>
       </c>
@@ -1430,7 +1553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>193</v>
       </c>
@@ -1441,7 +1564,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>195</v>
       </c>
@@ -1452,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>197</v>
       </c>
@@ -1463,7 +1586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>199</v>
       </c>
@@ -1474,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>201</v>
       </c>
@@ -1485,7 +1608,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>203</v>
       </c>
@@ -1496,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>205</v>
       </c>
@@ -1507,7 +1630,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
@@ -1518,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>209</v>
       </c>
@@ -1529,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>211</v>
       </c>
@@ -1540,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>213</v>
       </c>
@@ -1556,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1567,9 +1690,9 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>215</v>
       </c>
@@ -1586,7 +1709,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
@@ -1603,7 +1726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1618,7 +1741,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>115</v>
       </c>
@@ -1631,7 +1754,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>119</v>
       </c>
@@ -1648,7 +1771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1784,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1695,7 +1818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1833,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
@@ -1723,7 +1846,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>127</v>
       </c>
@@ -1740,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1876,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
@@ -1775,7 +1898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13431E0A-3391-42F3-B597-8D307D7D334B}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -1783,13 +1906,13 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
@@ -1812,7 +1935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
@@ -1829,7 +1952,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1843,7 +1966,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>115</v>
       </c>
@@ -1854,7 +1977,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>119</v>
       </c>
@@ -1871,7 +1994,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +2005,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +2019,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1913,7 +2036,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1927,7 +2050,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
@@ -1938,7 +2061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>127</v>
       </c>
@@ -1955,7 +2078,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +2089,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
@@ -1985,7 +2108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1994,9 +2117,9 @@
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>220</v>
       </c>
@@ -2010,7 +2133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
@@ -2024,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
@@ -2038,7 +2161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
@@ -2052,7 +2175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
@@ -2066,7 +2189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -2080,7 +2203,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>111</v>
       </c>
@@ -2094,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>111</v>
       </c>
@@ -2108,7 +2231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>111</v>
       </c>
@@ -2122,7 +2245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>111</v>
       </c>
@@ -2136,7 +2259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>111</v>
       </c>
@@ -2150,7 +2273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>115</v>
       </c>
@@ -2164,7 +2287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>115</v>
       </c>
@@ -2178,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>115</v>
       </c>
@@ -2192,7 +2315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>115</v>
       </c>
@@ -2206,7 +2329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>115</v>
       </c>
@@ -2220,7 +2343,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>119</v>
       </c>
@@ -2234,7 +2357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>119</v>
       </c>
@@ -2248,7 +2371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>119</v>
       </c>
@@ -2262,7 +2385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>119</v>
       </c>
@@ -2276,7 +2399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>119</v>
       </c>
@@ -2290,7 +2413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
@@ -2374,7 +2497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +2511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +2525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>22</v>
       </c>
@@ -2416,7 +2539,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
@@ -2430,7 +2553,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
@@ -2458,7 +2581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>26</v>
       </c>
@@ -2486,7 +2609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -2500,7 +2623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>28</v>
       </c>
@@ -2514,7 +2637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2528,7 +2651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>28</v>
       </c>
@@ -2542,7 +2665,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>28</v>
       </c>
@@ -2570,7 +2693,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>58</v>
       </c>
@@ -2584,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>58</v>
       </c>
@@ -2598,7 +2721,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>58</v>
       </c>
@@ -2612,7 +2735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>58</v>
       </c>
@@ -2626,7 +2749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>58</v>
       </c>
@@ -2640,7 +2763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>127</v>
       </c>
@@ -2654,7 +2777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>127</v>
       </c>
@@ -2668,7 +2791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>127</v>
       </c>
@@ -2682,7 +2805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>127</v>
       </c>
@@ -2696,7 +2819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>127</v>
       </c>
@@ -2710,7 +2833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>6</v>
       </c>
@@ -2724,7 +2847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>6</v>
       </c>
@@ -2738,7 +2861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +2875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>130</v>
       </c>
@@ -2794,7 +2917,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>130</v>
       </c>
@@ -2808,7 +2931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>130</v>
       </c>
@@ -2822,7 +2945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>130</v>
       </c>
@@ -2836,7 +2959,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>130</v>
       </c>
@@ -2866,13 +2989,13 @@
       <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2880,7 +3003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2888,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2896,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2904,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2912,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2920,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2928,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2936,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2944,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2952,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2960,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2968,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2990,13 +3113,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3015,7 +3138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3026,7 +3149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -3034,7 +3157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -3042,7 +3165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3053,7 +3176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -3064,7 +3187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3075,7 +3198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3083,7 +3206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3091,7 +3214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3099,7 +3222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3107,92 +3230,92 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3213,13 +3336,13 @@
       <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
@@ -3242,7 +3365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>79</v>
       </c>
@@ -3286,7 +3409,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>80</v>
       </c>
@@ -3305,7 +3428,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>81</v>
       </c>
@@ -3330,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>82</v>
       </c>
@@ -3380,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>83</v>
       </c>
@@ -3399,7 +3522,7 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>84</v>
       </c>
@@ -3418,7 +3541,7 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>85</v>
       </c>
@@ -3443,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
@@ -3462,7 +3585,7 @@
         <v>-149.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
@@ -3481,7 +3604,7 @@
         <v>-134.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>82</v>
       </c>
@@ -3506,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -3531,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>81</v>
       </c>
@@ -3556,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>80</v>
       </c>
@@ -3575,7 +3698,7 @@
         <v>-44.9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -3594,7 +3717,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -3619,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -3638,7 +3761,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>80</v>
       </c>
@@ -3657,7 +3780,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
@@ -3682,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
@@ -3701,7 +3824,7 @@
         <v>135.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>84</v>
       </c>
@@ -3720,7 +3843,7 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>84</v>
       </c>
@@ -3739,7 +3862,7 @@
         <v>-149.9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>83</v>
       </c>
@@ -3758,7 +3881,7 @@
         <v>-134.9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>82</v>
       </c>
@@ -3783,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>81</v>
       </c>
@@ -3808,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -3827,7 +3950,7 @@
         <v>-44.9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>79</v>
       </c>
@@ -3846,7 +3969,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>85</v>
       </c>
@@ -3871,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>8</v>
       </c>
@@ -3896,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>9</v>
       </c>
@@ -3971,9 +4094,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -3984,7 +4107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -3995,7 +4118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>13</v>
       </c>
@@ -4006,7 +4129,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -4017,7 +4140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -4028,7 +4151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4039,7 +4162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -4050,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -4061,7 +4184,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4072,7 +4195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -4083,7 +4206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -4094,7 +4217,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4105,7 +4228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -4116,7 +4239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -4127,7 +4250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -4154,9 +4277,9 @@
       <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>101</v>
       </c>
@@ -4179,7 +4302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>107</v>
       </c>
@@ -4202,7 +4325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -4225,7 +4348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
@@ -4248,7 +4371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>119</v>
       </c>
@@ -4271,7 +4394,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4417,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -4317,7 +4440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -4340,7 +4463,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -4363,7 +4486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -4386,7 +4509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>127</v>
       </c>
@@ -4409,7 +4532,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -4432,7 +4555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>130</v>
       </c>
@@ -4455,10 +4578,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4471,507 +4594,507 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="A1:L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -5000,7 +5123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -5029,7 +5152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
@@ -5052,7 +5175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>127</v>
       </c>
@@ -5075,7 +5198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
@@ -5098,7 +5221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>130</v>
       </c>
@@ -5121,7 +5244,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>107</v>
       </c>
@@ -5141,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>111</v>
       </c>
@@ -5161,7 +5284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>115</v>
       </c>
@@ -5181,7 +5304,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>119</v>
       </c>
@@ -5204,7 +5327,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -5224,7 +5347,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
@@ -5253,6 +5376,937 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98811510-85E3-48AF-9E67-D50DD2EEAEFC}">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5261,9 +6315,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>158</v>
       </c>
@@ -5274,7 +6328,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
@@ -5285,7 +6339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>89</v>
       </c>
@@ -5296,7 +6350,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
@@ -5307,7 +6361,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
@@ -5318,7 +6372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>91</v>
       </c>
@@ -5329,7 +6383,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -5340,7 +6394,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>93</v>
       </c>
@@ -5351,7 +6405,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -5362,7 +6416,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>95</v>
       </c>
@@ -5373,7 +6427,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
@@ -5384,12 +6438,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>163</v>
       </c>
@@ -5397,52 +6451,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>173</v>
       </c>
@@ -5450,7 +6504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>97</v>
       </c>
@@ -5461,7 +6515,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>99</v>
       </c>
@@ -5472,7 +6526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>176</v>
       </c>
@@ -5483,7 +6537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>98</v>
       </c>
@@ -5492,126 +6546,6 @@
       </c>
       <c r="C27" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="18">
-        <v>45</v>
-      </c>
-      <c r="C3" s="18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="18">
-        <v>90</v>
-      </c>
-      <c r="C4" s="18">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="18">
-        <v>135</v>
-      </c>
-      <c r="C5" s="18">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18">
-        <v>180</v>
-      </c>
-      <c r="C6" s="18">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="18">
-        <v>215</v>
-      </c>
-      <c r="C7" s="18">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="18">
-        <v>270</v>
-      </c>
-      <c r="C8" s="18">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="18">
-        <v>315</v>
-      </c>
-      <c r="C9" s="18">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
